--- a/drawings_tables/ref_data_for_latex_formatter_V4_21-Jun-2023/Consolidated_RF_performance_summary_21-Jun-2023.xlsx
+++ b/drawings_tables/ref_data_for_latex_formatter_V4_21-Jun-2023/Consolidated_RF_performance_summary_21-Jun-2023.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\ResearchLab\RL_for_PdM\REINFORCE_Tool_Replace_Policy\results\Fbeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\HEI\P-4 Research Phase\Article_Empirical_Study\drawings_tables\ref_data_for_latex_formatter_V4_21-Jun-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE321B21-8244-4924-B988-0E5A214776EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D02E651-50E2-4FE6-9E6D-455F3FE624DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Consolidated_RF_performance_sum" sheetId="1" r:id="rId1"/>
+    <sheet name="Laptop-HP-Elitebook" sheetId="1" r:id="rId1"/>
+    <sheet name="Laptop-Dell" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>RF_Pr</t>
   </si>
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,12 +1004,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2682,4 +2681,1680 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7128DC-C9A5-46F3-921E-D8984695C4BB}">
+  <dimension ref="A1:AH16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.65999999999999903</v>
+      </c>
+      <c r="E2">
+        <v>0.79458237840590695</v>
+      </c>
+      <c r="F2">
+        <v>0.90603500171998597</v>
+      </c>
+      <c r="G2">
+        <v>0.37084249084248999</v>
+      </c>
+      <c r="H2">
+        <v>0.18</v>
+      </c>
+      <c r="I2">
+        <v>0.238827920070313</v>
+      </c>
+      <c r="J2">
+        <v>0.30137205201059603</v>
+      </c>
+      <c r="K2">
+        <v>0.4</v>
+      </c>
+      <c r="L2">
+        <v>0.02</v>
+      </c>
+      <c r="M2">
+        <v>3.8095238095238002E-2</v>
+      </c>
+      <c r="N2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.25749999999999901</v>
+      </c>
+      <c r="P2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.100882117882117</v>
+      </c>
+      <c r="R2">
+        <v>0.15419164169164101</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>3.9440531887330703E-2</v>
+      </c>
+      <c r="U2">
+        <v>2.7995832201887599E-2</v>
+      </c>
+      <c r="V2">
+        <v>1.43398507260038E-2</v>
+      </c>
+      <c r="W2">
+        <v>0.17776175793740701</v>
+      </c>
+      <c r="X2">
+        <v>9.4868329805051305E-2</v>
+      </c>
+      <c r="Y2">
+        <v>0.118634413748823</v>
+      </c>
+      <c r="Z2">
+        <v>0.144793054511722</v>
+      </c>
+      <c r="AA2">
+        <v>0.51639777949432197</v>
+      </c>
+      <c r="AB2">
+        <v>2.5819888974716099E-2</v>
+      </c>
+      <c r="AC2">
+        <v>4.9180740904221101E-2</v>
+      </c>
+      <c r="AD2">
+        <v>0.107582870727983</v>
+      </c>
+      <c r="AE2">
+        <v>0.22826675157925</v>
+      </c>
+      <c r="AF2">
+        <v>7.4721705904866306E-2</v>
+      </c>
+      <c r="AG2">
+        <v>0.10788444804669201</v>
+      </c>
+      <c r="AH2">
+        <v>0.14978425880329499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>0.95709956709956701</v>
+      </c>
+      <c r="D3">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.97047887072277295</v>
+      </c>
+      <c r="F3">
+        <v>0.96232015669515603</v>
+      </c>
+      <c r="G3">
+        <v>0.52339147901723604</v>
+      </c>
+      <c r="H3">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.49500524283823499</v>
+      </c>
+      <c r="J3">
+        <v>0.51079730481189201</v>
+      </c>
+      <c r="K3">
+        <v>0.433193277310924</v>
+      </c>
+      <c r="L3">
+        <v>0.745</v>
+      </c>
+      <c r="M3">
+        <v>0.54781144781144697</v>
+      </c>
+      <c r="N3">
+        <v>0.47275641025641002</v>
+      </c>
+      <c r="O3">
+        <v>0.18</v>
+      </c>
+      <c r="P3">
+        <v>0.04</v>
+      </c>
+      <c r="Q3">
+        <v>6.47759197324414E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.103977272727272</v>
+      </c>
+      <c r="S3">
+        <v>2.6242162555275499E-2</v>
+      </c>
+      <c r="T3">
+        <v>2.4152294576982401E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.5579492011914499E-2</v>
+      </c>
+      <c r="V3">
+        <v>2.05324111907178E-2</v>
+      </c>
+      <c r="W3">
+        <v>0.11616719321071101</v>
+      </c>
+      <c r="X3">
+        <v>0.13794121131039</v>
+      </c>
+      <c r="Y3">
+        <v>0.122790422567174</v>
+      </c>
+      <c r="Z3">
+        <v>0.11715941252409499</v>
+      </c>
+      <c r="AA3">
+        <v>9.7939124577294707E-3</v>
+      </c>
+      <c r="AB3">
+        <v>1.5811388300841899E-2</v>
+      </c>
+      <c r="AC3">
+        <v>1.14511119557214E-2</v>
+      </c>
+      <c r="AD3">
+        <v>1.03445068007676E-2</v>
+      </c>
+      <c r="AE3">
+        <v>0.22889967612121001</v>
+      </c>
+      <c r="AF3">
+        <v>4.5946829173633998E-2</v>
+      </c>
+      <c r="AG3">
+        <v>7.4799872231983006E-2</v>
+      </c>
+      <c r="AH3">
+        <v>0.122450175864837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>0.86869000564652699</v>
+      </c>
+      <c r="D4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.92291081956425103</v>
+      </c>
+      <c r="F4">
+        <v>0.88953666863149605</v>
+      </c>
+      <c r="G4">
+        <v>0.33715728715728699</v>
+      </c>
+      <c r="H4">
+        <v>0.105</v>
+      </c>
+      <c r="I4">
+        <v>0.15360253802967899</v>
+      </c>
+      <c r="J4">
+        <v>0.21965187590187499</v>
+      </c>
+      <c r="K4">
+        <v>0.39</v>
+      </c>
+      <c r="L4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M4">
+        <v>9.5446640316205505E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.17232142857142799</v>
+      </c>
+      <c r="O4">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="P4">
+        <v>0.06</v>
+      </c>
+      <c r="Q4">
+        <v>9.1017677974199601E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.13439685314685301</v>
+      </c>
+      <c r="S4">
+        <v>3.3539689937977103E-2</v>
+      </c>
+      <c r="T4">
+        <v>2.4152294576982401E-2</v>
+      </c>
+      <c r="U4">
+        <v>2.45647008686425E-2</v>
+      </c>
+      <c r="V4">
+        <v>2.9622999351352101E-2</v>
+      </c>
+      <c r="W4">
+        <v>0.217925149525804</v>
+      </c>
+      <c r="X4">
+        <v>7.9756574093369295E-2</v>
+      </c>
+      <c r="Y4">
+        <v>0.107426070443635</v>
+      </c>
+      <c r="Z4">
+        <v>0.14151989111229599</v>
+      </c>
+      <c r="AA4">
+        <v>0.40063221642736802</v>
+      </c>
+      <c r="AB4">
+        <v>5.5025246730730601E-2</v>
+      </c>
+      <c r="AC4">
+        <v>9.5266769299353196E-2</v>
+      </c>
+      <c r="AD4">
+        <v>0.172172040271488</v>
+      </c>
+      <c r="AE4">
+        <v>0.25153847605937202</v>
+      </c>
+      <c r="AF4">
+        <v>6.99205898780101E-2</v>
+      </c>
+      <c r="AG4">
+        <v>0.104568904439307</v>
+      </c>
+      <c r="AH4">
+        <v>0.15368924577080301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>0.91721626199886996</v>
+      </c>
+      <c r="D5">
+        <v>0.99</v>
+      </c>
+      <c r="E5">
+        <v>0.95189665883369801</v>
+      </c>
+      <c r="F5">
+        <v>0.93071021571021495</v>
+      </c>
+      <c r="G5">
+        <v>0.465809966177613</v>
+      </c>
+      <c r="H5">
+        <v>0.45</v>
+      </c>
+      <c r="I5">
+        <v>0.45535239869949901</v>
+      </c>
+      <c r="J5">
+        <v>0.46100688439398102</v>
+      </c>
+      <c r="K5">
+        <v>0.50519568151147098</v>
+      </c>
+      <c r="L5">
+        <v>0.99</v>
+      </c>
+      <c r="M5">
+        <v>0.66894603545684705</v>
+      </c>
+      <c r="N5">
+        <v>0.56002613342729601</v>
+      </c>
+      <c r="O5">
+        <v>0.57443548759910301</v>
+      </c>
+      <c r="P5">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="Q5">
+        <v>0.58151167044836105</v>
+      </c>
+      <c r="R5">
+        <v>0.57657542204276602</v>
+      </c>
+      <c r="S5">
+        <v>2.7094064290097902E-2</v>
+      </c>
+      <c r="T5">
+        <v>3.1622776601683798E-2</v>
+      </c>
+      <c r="U5">
+        <v>2.3215660671490002E-2</v>
+      </c>
+      <c r="V5">
+        <v>2.4361996450821599E-2</v>
+      </c>
+      <c r="W5">
+        <v>6.7159694868206901E-2</v>
+      </c>
+      <c r="X5">
+        <v>8.4983658559879702E-2</v>
+      </c>
+      <c r="Y5">
+        <v>6.6790115042970596E-2</v>
+      </c>
+      <c r="Z5">
+        <v>6.4623760218602402E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.0954612969787799E-2</v>
+      </c>
+      <c r="AB5">
+        <v>2.10818510677892E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.2920159306266899E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.15740714874457E-2</v>
+      </c>
+      <c r="AE5">
+        <v>7.6258482979114597E-2</v>
+      </c>
+      <c r="AF5">
+        <v>0.11654755824698</v>
+      </c>
+      <c r="AG5">
+        <v>8.6803871797654794E-2</v>
+      </c>
+      <c r="AH5">
+        <v>7.8031060716293801E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>0.96152261781905701</v>
+      </c>
+      <c r="D6">
+        <v>0.86</v>
+      </c>
+      <c r="E6">
+        <v>0.90673420383946701</v>
+      </c>
+      <c r="F6">
+        <v>0.93849120082815696</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.50540358171937105</v>
+      </c>
+      <c r="L6">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.66791555159084104</v>
+      </c>
+      <c r="N6">
+        <v>0.55988351119165003</v>
+      </c>
+      <c r="O6">
+        <v>0.57225534191209204</v>
+      </c>
+      <c r="P6">
+        <v>0.65</v>
+      </c>
+      <c r="Q6">
+        <v>0.60556172509660799</v>
+      </c>
+      <c r="R6">
+        <v>0.58452025385215001</v>
+      </c>
+      <c r="S6">
+        <v>3.6512103751169298E-2</v>
+      </c>
+      <c r="T6">
+        <v>6.5828058860438299E-2</v>
+      </c>
+      <c r="U6">
+        <v>4.3888252392495698E-2</v>
+      </c>
+      <c r="V6">
+        <v>3.5349692182920098E-2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1.99818705308107E-2</v>
+      </c>
+      <c r="AB6">
+        <v>3.3747427885527599E-2</v>
+      </c>
+      <c r="AC6">
+        <v>2.33263994858438E-2</v>
+      </c>
+      <c r="AD6">
+        <v>2.1121744366145001E-2</v>
+      </c>
+      <c r="AE6">
+        <v>7.1928135663400894E-2</v>
+      </c>
+      <c r="AF6">
+        <v>0.115470053837925</v>
+      </c>
+      <c r="AG6">
+        <v>7.8248356048976703E-2</v>
+      </c>
+      <c r="AH6">
+        <v>7.12645390772597E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>0.89190661436199103</v>
+      </c>
+      <c r="D7">
+        <v>0.94</v>
+      </c>
+      <c r="E7">
+        <v>0.91386217645718504</v>
+      </c>
+      <c r="F7">
+        <v>0.90025183150183097</v>
+      </c>
+      <c r="G7">
+        <v>0.437615119658463</v>
+      </c>
+      <c r="H7">
+        <v>0.45499999999999902</v>
+      </c>
+      <c r="I7">
+        <v>0.44396958166841499</v>
+      </c>
+      <c r="J7">
+        <v>0.43962835870511002</v>
+      </c>
+      <c r="K7">
+        <v>0.50006747638326499</v>
+      </c>
+      <c r="L7">
+        <v>0.98</v>
+      </c>
+      <c r="M7">
+        <v>0.66216637443989801</v>
+      </c>
+      <c r="N7">
+        <v>0.554344315245478</v>
+      </c>
+      <c r="O7">
+        <v>0.50872249589490903</v>
+      </c>
+      <c r="P7">
+        <v>0.72</v>
+      </c>
+      <c r="Q7">
+        <v>0.59528799771656904</v>
+      </c>
+      <c r="R7">
+        <v>0.53999960782415102</v>
+      </c>
+      <c r="S7">
+        <v>7.0075763174831704E-2</v>
+      </c>
+      <c r="T7">
+        <v>3.1622776601683701E-2</v>
+      </c>
+      <c r="U7">
+        <v>4.2066180993861703E-2</v>
+      </c>
+      <c r="V7">
+        <v>5.8680352976304202E-2</v>
+      </c>
+      <c r="W7">
+        <v>0.116174788904414</v>
+      </c>
+      <c r="X7">
+        <v>0.15714466088430801</v>
+      </c>
+      <c r="Y7">
+        <v>0.133388385707542</v>
+      </c>
+      <c r="Z7">
+        <v>0.122266863930465</v>
+      </c>
+      <c r="AA7">
+        <v>1.22471649368969E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.5819888974716099E-2</v>
+      </c>
+      <c r="AC7">
+        <v>1.5340096189010799E-2</v>
+      </c>
+      <c r="AD7">
+        <v>1.32084658573781E-2</v>
+      </c>
+      <c r="AE7">
+        <v>4.1926455502343599E-2</v>
+      </c>
+      <c r="AF7">
+        <v>8.5634883857767505E-2</v>
+      </c>
+      <c r="AG7">
+        <v>5.4528014537395898E-2</v>
+      </c>
+      <c r="AH7">
+        <v>4.5545988546496399E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>0.75634155297198702</v>
+      </c>
+      <c r="D8">
+        <v>0.96</v>
+      </c>
+      <c r="E8">
+        <v>0.84531003731786802</v>
+      </c>
+      <c r="F8">
+        <v>0.78944656219753495</v>
+      </c>
+      <c r="G8">
+        <v>0.47123918865791897</v>
+      </c>
+      <c r="H8">
+        <v>0.45</v>
+      </c>
+      <c r="I8">
+        <v>0.45880658388360501</v>
+      </c>
+      <c r="J8">
+        <v>0.46577175441305801</v>
+      </c>
+      <c r="K8">
+        <v>0.501212751212751</v>
+      </c>
+      <c r="L8">
+        <v>0.98</v>
+      </c>
+      <c r="M8">
+        <v>0.66313841295231002</v>
+      </c>
+      <c r="N8">
+        <v>0.55545802711500303</v>
+      </c>
+      <c r="O8">
+        <v>0.45482683982683902</v>
+      </c>
+      <c r="P8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.24878745343150199</v>
+      </c>
+      <c r="R8">
+        <v>0.337830051892551</v>
+      </c>
+      <c r="S8">
+        <v>2.77103813140216E-2</v>
+      </c>
+      <c r="T8">
+        <v>6.1463629715285899E-2</v>
+      </c>
+      <c r="U8">
+        <v>3.4174400077731003E-2</v>
+      </c>
+      <c r="V8">
+        <v>2.81943004067618E-2</v>
+      </c>
+      <c r="W8">
+        <v>7.4335230797944393E-2</v>
+      </c>
+      <c r="X8">
+        <v>8.4983658559879702E-2</v>
+      </c>
+      <c r="Y8">
+        <v>7.41654508164169E-2</v>
+      </c>
+      <c r="Z8">
+        <v>7.2523984370219702E-2</v>
+      </c>
+      <c r="AA8">
+        <v>9.5764154066316498E-3</v>
+      </c>
+      <c r="AB8">
+        <v>3.4960294939005002E-2</v>
+      </c>
+      <c r="AC8">
+        <v>1.5393074834152899E-2</v>
+      </c>
+      <c r="AD8">
+        <v>1.12119915782157E-2</v>
+      </c>
+      <c r="AE8">
+        <v>0.18702902802509799</v>
+      </c>
+      <c r="AF8">
+        <v>8.8975652100260899E-2</v>
+      </c>
+      <c r="AG8">
+        <v>0.11505976227225199</v>
+      </c>
+      <c r="AH8">
+        <v>0.143561394556911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0.830533090098307</v>
+      </c>
+      <c r="D9">
+        <v>0.994999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.90489336525736896</v>
+      </c>
+      <c r="F9">
+        <v>0.858673805698277</v>
+      </c>
+      <c r="G9">
+        <v>0.49809163059162997</v>
+      </c>
+      <c r="H9">
+        <v>0.53</v>
+      </c>
+      <c r="I9">
+        <v>0.51268967874230997</v>
+      </c>
+      <c r="J9">
+        <v>0.50363962249644401</v>
+      </c>
+      <c r="K9">
+        <v>0.49345479082321098</v>
+      </c>
+      <c r="L9">
+        <v>0.96</v>
+      </c>
+      <c r="M9">
+        <v>0.65178258328462801</v>
+      </c>
+      <c r="N9">
+        <v>0.54655567300916097</v>
+      </c>
+      <c r="O9">
+        <v>0.53846461509504895</v>
+      </c>
+      <c r="P9">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.58904341484553002</v>
+      </c>
+      <c r="R9">
+        <v>0.55725419911320895</v>
+      </c>
+      <c r="S9">
+        <v>3.2992793515014301E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.5811388300841899E-2</v>
+      </c>
+      <c r="U9">
+        <v>1.8604087752558299E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.755538377672E-2</v>
+      </c>
+      <c r="W9">
+        <v>5.2453781853611603E-2</v>
+      </c>
+      <c r="X9">
+        <v>8.8819417296494799E-2</v>
+      </c>
+      <c r="Y9">
+        <v>6.73866162578943E-2</v>
+      </c>
+      <c r="Z9">
+        <v>5.7590408244972802E-2</v>
+      </c>
+      <c r="AA9">
+        <v>1.2691819616107099E-2</v>
+      </c>
+      <c r="AB9">
+        <v>3.9440531887330703E-2</v>
+      </c>
+      <c r="AC9">
+        <v>1.95099478230184E-2</v>
+      </c>
+      <c r="AD9">
+        <v>1.47386531417704E-2</v>
+      </c>
+      <c r="AE9">
+        <v>6.4762369237238507E-2</v>
+      </c>
+      <c r="AF9">
+        <v>0.11654755824698</v>
+      </c>
+      <c r="AG9">
+        <v>7.8684886399582002E-2</v>
+      </c>
+      <c r="AH9">
+        <v>6.8042393264834605E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>0.77088274044795702</v>
+      </c>
+      <c r="D10">
+        <v>0.80999999999999905</v>
+      </c>
+      <c r="E10">
+        <v>0.78952272911433397</v>
+      </c>
+      <c r="F10">
+        <v>0.77813644688644601</v>
+      </c>
+      <c r="G10">
+        <v>0.54811393793087104</v>
+      </c>
+      <c r="H10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.56006682327676605</v>
+      </c>
+      <c r="J10">
+        <v>0.55181521360956798</v>
+      </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
+      <c r="L10">
+        <v>0.02</v>
+      </c>
+      <c r="M10">
+        <v>3.7229437229437203E-2</v>
+      </c>
+      <c r="N10">
+        <v>7.73809523809523E-2</v>
+      </c>
+      <c r="O10">
+        <v>0.53857531357531296</v>
+      </c>
+      <c r="P10">
+        <v>0.3</v>
+      </c>
+      <c r="Q10">
+        <v>0.38246733517172798</v>
+      </c>
+      <c r="R10">
+        <v>0.46120459401709402</v>
+      </c>
+      <c r="S10">
+        <v>4.4661199938885197E-2</v>
+      </c>
+      <c r="T10">
+        <v>6.99205898780101E-2</v>
+      </c>
+      <c r="U10">
+        <v>5.4421852115833801E-2</v>
+      </c>
+      <c r="V10">
+        <v>4.78046306300553E-2</v>
+      </c>
+      <c r="W10">
+        <v>4.79883282655802E-2</v>
+      </c>
+      <c r="X10">
+        <v>9.7752521990767893E-2</v>
+      </c>
+      <c r="Y10">
+        <v>6.6663629006557201E-2</v>
+      </c>
+      <c r="Z10">
+        <v>5.1877481191252801E-2</v>
+      </c>
+      <c r="AA10">
+        <v>0.483045891539647</v>
+      </c>
+      <c r="AB10">
+        <v>3.4960294939005002E-2</v>
+      </c>
+      <c r="AC10">
+        <v>6.4410256985656097E-2</v>
+      </c>
+      <c r="AD10">
+        <v>0.13101249221602501</v>
+      </c>
+      <c r="AE10">
+        <v>0.13973514491953401</v>
+      </c>
+      <c r="AF10">
+        <v>9.7182531580755002E-2</v>
+      </c>
+      <c r="AG10">
+        <v>0.11285905338782599</v>
+      </c>
+      <c r="AH10">
+        <v>0.125950206243825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11">
+        <v>0.75661980334655798</v>
+      </c>
+      <c r="F11">
+        <v>0.88545697884416896</v>
+      </c>
+      <c r="G11">
+        <v>0.58015665862671295</v>
+      </c>
+      <c r="H11">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.61629354891531396</v>
+      </c>
+      <c r="J11">
+        <v>0.59343543133065102</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+      <c r="L11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M11">
+        <v>6.2121212121212098E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.11706349206349199</v>
+      </c>
+      <c r="O11">
+        <v>0.55560367607968197</v>
+      </c>
+      <c r="P11">
+        <v>0.48</v>
+      </c>
+      <c r="Q11">
+        <v>0.51037142013372905</v>
+      </c>
+      <c r="R11">
+        <v>0.53515845567475995</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>5.1639777949432197E-2</v>
+      </c>
+      <c r="U11">
+        <v>3.9651951996434398E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.1696888490495399E-2</v>
+      </c>
+      <c r="W11">
+        <v>7.3988623532266304E-2</v>
+      </c>
+      <c r="X11">
+        <v>0.12030054955079</v>
+      </c>
+      <c r="Y11">
+        <v>8.2297625634522198E-2</v>
+      </c>
+      <c r="Z11">
+        <v>7.4331154880862005E-2</v>
+      </c>
+      <c r="AA11">
+        <v>0.42163702135578301</v>
+      </c>
+      <c r="AB11">
+        <v>4.7434164902525597E-2</v>
+      </c>
+      <c r="AC11">
+        <v>8.4041982308412394E-2</v>
+      </c>
+      <c r="AD11">
+        <v>0.158854118263873</v>
+      </c>
+      <c r="AE11">
+        <v>7.1662548598476594E-2</v>
+      </c>
+      <c r="AF11">
+        <v>0.12736648783028501</v>
+      </c>
+      <c r="AG11">
+        <v>9.3999310345129497E-2</v>
+      </c>
+      <c r="AH11">
+        <v>7.7539064979601405E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>0.946370214752567</v>
+      </c>
+      <c r="D12">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.85086829421194698</v>
+      </c>
+      <c r="F12">
+        <v>0.90529033799914804</v>
+      </c>
+      <c r="G12">
+        <v>0.454349861225954</v>
+      </c>
+      <c r="H12">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.43661312329790097</v>
+      </c>
+      <c r="J12">
+        <v>0.446409297224514</v>
+      </c>
+      <c r="K12">
+        <v>0.15</v>
+      </c>
+      <c r="L12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M12">
+        <v>4.2424242424242399E-2</v>
+      </c>
+      <c r="N12">
+        <v>7.3412698412698402E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.38583333333333297</v>
+      </c>
+      <c r="P12">
+        <v>0.06</v>
+      </c>
+      <c r="Q12">
+        <v>9.8829851308112102E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.16768543956043899</v>
+      </c>
+      <c r="S12">
+        <v>5.6625504795552797E-2</v>
+      </c>
+      <c r="T12">
+        <v>6.7700320038632994E-2</v>
+      </c>
+      <c r="U12">
+        <v>5.5357460995420701E-2</v>
+      </c>
+      <c r="V12">
+        <v>5.25778872972886E-2</v>
+      </c>
+      <c r="W12">
+        <v>0.11115002703377599</v>
+      </c>
+      <c r="X12">
+        <v>0.14191155304938599</v>
+      </c>
+      <c r="Y12">
+        <v>0.12280814222575499</v>
+      </c>
+      <c r="Z12">
+        <v>0.11461357293612499</v>
+      </c>
+      <c r="AA12">
+        <v>0.33747427885527598</v>
+      </c>
+      <c r="AB12">
+        <v>6.3464775882199204E-2</v>
+      </c>
+      <c r="AC12">
+        <v>0.106132731608595</v>
+      </c>
+      <c r="AD12">
+        <v>0.17846116525213301</v>
+      </c>
+      <c r="AE12">
+        <v>0.37051953014952099</v>
+      </c>
+      <c r="AF12">
+        <v>5.1639777949432197E-2</v>
+      </c>
+      <c r="AG12">
+        <v>8.0454802474255405E-2</v>
+      </c>
+      <c r="AH12">
+        <v>0.13180139551432399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>0.72537055281882801</v>
+      </c>
+      <c r="D13">
+        <v>0.95</v>
+      </c>
+      <c r="E13">
+        <v>0.821926180474151</v>
+      </c>
+      <c r="F13">
+        <v>0.76102025218900304</v>
+      </c>
+      <c r="G13">
+        <v>0.51760881146716997</v>
+      </c>
+      <c r="H13">
+        <v>0.505</v>
+      </c>
+      <c r="I13">
+        <v>0.51013484537874698</v>
+      </c>
+      <c r="J13">
+        <v>0.51430180930180902</v>
+      </c>
+      <c r="K13">
+        <v>0.96934001670843695</v>
+      </c>
+      <c r="L13">
+        <v>0.875</v>
+      </c>
+      <c r="M13">
+        <v>0.91878808797935796</v>
+      </c>
+      <c r="N13">
+        <v>0.94820442238920499</v>
+      </c>
+      <c r="O13">
+        <v>0.33999999999999903</v>
+      </c>
+      <c r="P13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.112045621045621</v>
+      </c>
+      <c r="R13">
+        <v>0.179872904872904</v>
+      </c>
+      <c r="S13">
+        <v>6.0290707044509999E-2</v>
+      </c>
+      <c r="T13">
+        <v>4.08248290463862E-2</v>
+      </c>
+      <c r="U13">
+        <v>5.0653686548306098E-2</v>
+      </c>
+      <c r="V13">
+        <v>5.6897066422211498E-2</v>
+      </c>
+      <c r="W13">
+        <v>8.9377107300798203E-2</v>
+      </c>
+      <c r="X13">
+        <v>8.9597867038104004E-2</v>
+      </c>
+      <c r="Y13">
+        <v>8.5986725278357407E-2</v>
+      </c>
+      <c r="Z13">
+        <v>8.7000906664144603E-2</v>
+      </c>
+      <c r="AA13">
+        <v>4.7082362962960103E-2</v>
+      </c>
+      <c r="AB13">
+        <v>3.5355339059327397E-2</v>
+      </c>
+      <c r="AC13">
+        <v>2.7881357999130399E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.66640999515312E-2</v>
+      </c>
+      <c r="AE13">
+        <v>0.316807960680626</v>
+      </c>
+      <c r="AF13">
+        <v>5.8689389538863303E-2</v>
+      </c>
+      <c r="AG13">
+        <v>9.2419228060667602E-2</v>
+      </c>
+      <c r="AH13">
+        <v>0.146985209748424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>0.80500606754039195</v>
+      </c>
+      <c r="D14">
+        <v>0.869999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.83504921435154</v>
+      </c>
+      <c r="F14">
+        <v>0.81649311257069801</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J14">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="K14">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="L14">
+        <v>0.12</v>
+      </c>
+      <c r="M14">
+        <v>0.20701581027667901</v>
+      </c>
+      <c r="N14">
+        <v>0.36830357142857101</v>
+      </c>
+      <c r="O14">
+        <v>0.50380952380952304</v>
+      </c>
+      <c r="P14">
+        <v>0.16999999999999901</v>
+      </c>
+      <c r="Q14">
+        <v>0.24968659565211199</v>
+      </c>
+      <c r="R14">
+        <v>0.35305666555666498</v>
+      </c>
+      <c r="S14">
+        <v>2.8420006972064399E-2</v>
+      </c>
+      <c r="T14">
+        <v>8.2327260234856398E-2</v>
+      </c>
+      <c r="U14">
+        <v>4.9552173021092598E-2</v>
+      </c>
+      <c r="V14">
+        <v>3.4608747704453401E-2</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0.189419190235914</v>
+      </c>
+      <c r="AB14">
+        <v>3.4960294939005002E-2</v>
+      </c>
+      <c r="AC14">
+        <v>5.5762443700757398E-2</v>
+      </c>
+      <c r="AD14">
+        <v>8.7172865485661999E-2</v>
+      </c>
+      <c r="AE14">
+        <v>0.18657445622268201</v>
+      </c>
+      <c r="AF14">
+        <v>0.10327955589886401</v>
+      </c>
+      <c r="AG14">
+        <v>0.13601426879022899</v>
+      </c>
+      <c r="AH14">
+        <v>0.16480683194340101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>0.74829401669134399</v>
+      </c>
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15">
+        <v>0.72182188496753896</v>
+      </c>
+      <c r="F15">
+        <v>0.73708815640880798</v>
+      </c>
+      <c r="G15">
+        <v>0.49615566983988002</v>
+      </c>
+      <c r="H15">
+        <v>0.95</v>
+      </c>
+      <c r="I15">
+        <v>0.65182154685369098</v>
+      </c>
+      <c r="J15">
+        <v>0.54855343300110704</v>
+      </c>
+      <c r="K15">
+        <v>0.489610460663092</v>
+      </c>
+      <c r="L15">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M15">
+        <v>0.64020417789066397</v>
+      </c>
+      <c r="N15">
+        <v>0.54045327781501895</v>
+      </c>
+      <c r="O15">
+        <v>0.51629857071033503</v>
+      </c>
+      <c r="P15">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="Q15">
+        <v>0.40102365442922699</v>
+      </c>
+      <c r="R15">
+        <v>0.46047066818704901</v>
+      </c>
+      <c r="S15">
+        <v>7.4464894054585007E-2</v>
+      </c>
+      <c r="T15">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="U15">
+        <v>6.1175192230206898E-2</v>
+      </c>
+      <c r="V15">
+        <v>6.6876288441753903E-2</v>
+      </c>
+      <c r="W15">
+        <v>1.24043418707897E-2</v>
+      </c>
+      <c r="X15">
+        <v>2.3570226039551501E-2</v>
+      </c>
+      <c r="Y15">
+        <v>1.5269378126249501E-2</v>
+      </c>
+      <c r="Z15">
+        <v>1.3332673100900199E-2</v>
+      </c>
+      <c r="AA15">
+        <v>1.5052053532550101E-2</v>
+      </c>
+      <c r="AB15">
+        <v>2.63523138347364E-2</v>
+      </c>
+      <c r="AC15">
+        <v>1.7221407507027001E-2</v>
+      </c>
+      <c r="AD15">
+        <v>1.5750627942935601E-2</v>
+      </c>
+      <c r="AE15">
+        <v>0.13139018199927099</v>
+      </c>
+      <c r="AF15">
+        <v>7.0906824620608794E-2</v>
+      </c>
+      <c r="AG15">
+        <v>7.6715869365727399E-2</v>
+      </c>
+      <c r="AH15">
+        <v>9.6634289027925799E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.81935319582378396</v>
+      </c>
+      <c r="F16">
+        <v>0.91867690058479501</v>
+      </c>
+      <c r="G16">
+        <v>0.50399299530878405</v>
+      </c>
+      <c r="H16">
+        <v>0.93</v>
+      </c>
+      <c r="I16">
+        <v>0.65341743251445095</v>
+      </c>
+      <c r="J16">
+        <v>0.55470439703990404</v>
+      </c>
+      <c r="K16">
+        <v>0.25</v>
+      </c>
+      <c r="L16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M16">
+        <v>2.8138528138528102E-2</v>
+      </c>
+      <c r="N16">
+        <v>5.95238095238095E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.49158008658008601</v>
+      </c>
+      <c r="P16">
+        <v>0.2</v>
+      </c>
+      <c r="Q16">
+        <v>0.27991777143056301</v>
+      </c>
+      <c r="R16">
+        <v>0.37324637168387098</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>4.3779751788545603E-2</v>
+      </c>
+      <c r="U16">
+        <v>3.03663762674341E-2</v>
+      </c>
+      <c r="V16">
+        <v>1.52424405022594E-2</v>
+      </c>
+      <c r="W16">
+        <v>1.44422774936109E-2</v>
+      </c>
+      <c r="X16">
+        <v>5.3748384988657E-2</v>
+      </c>
+      <c r="Y16">
+        <v>2.27006400986874E-2</v>
+      </c>
+      <c r="Z16">
+        <v>1.6535210528637202E-2</v>
+      </c>
+      <c r="AA16">
+        <v>0.42491829279939802</v>
+      </c>
+      <c r="AB16">
+        <v>2.4152294576982401E-2</v>
+      </c>
+      <c r="AC16">
+        <v>4.5322651585972297E-2</v>
+      </c>
+      <c r="AD16">
+        <v>9.6184124155085801E-2</v>
+      </c>
+      <c r="AE16">
+        <v>0.23650077091555799</v>
+      </c>
+      <c r="AF16">
+        <v>0.124721912892464</v>
+      </c>
+      <c r="AG16">
+        <v>0.16033637465081699</v>
+      </c>
+      <c r="AH16">
+        <v>0.19513703031357199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>